--- a/globalVariables/globalVarsList_protocolCore.xlsx
+++ b/globalVariables/globalVarsList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\globalVariables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC008471-979D-4CD5-A04D-510B59652EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5339C-0665-495A-85D1-AF573FE754D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var Globali" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>WWAGLOBADX</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
-    <t>(*)</t>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>Var Globale CLOB X3M</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
